--- a/Testcases/Website Automation Testcases .xlsx
+++ b/Testcases/Website Automation Testcases .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slagade\OneDrive - Capgemini\Desktop\Amra\QA resume\FedEx QA Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slagade\eclipse-workspace\WebsiteSignUpGIT\WebsiteAutomationProject\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="11_F25DC773A252ABDACC10489659DD703A5ADE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{749DF64A-BE7A-4C88-95B8-310232857298}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154F53D-1056-451F-AFC7-AC41B8FCE239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="19160" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
   <si>
     <t>Comments</t>
   </si>
@@ -349,17 +349,6 @@
   </si>
   <si>
     <t>To verify if the user is unable to sign up by entering all invalid details.</t>
-  </si>
-  <si>
-    <t>1. Traverse to Create Account page, enter invalid email ID, invalid password and mismatched confirm password. 
-2. Do not check Terms and Conditions checkbox.
-3. Click on "Create a PC ID" button.
-4. Verify user is unable to signup.</t>
-  </si>
-  <si>
-    <t>1. Enter invalid email ID as "abc@gmail"
-2. Enter password as "abc"
-3. Enter Confirm Password as "ab"</t>
   </si>
   <si>
     <t>Respective validation messages should appear for Email Id, Password, Confirm Password and Terms and Conditions field.</t>
@@ -533,6 +522,12 @@
   </si>
   <si>
     <t>SignUp</t>
+  </si>
+  <si>
+    <t>1. Traverse to Create Account page, keep blank email ID, invalid password and confirm password fields. 
+2. Do not check Terms and Conditions checkbox.
+3. Click on "Create a PC ID" button.
+4. Verify user is unable to signup.</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1019,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,13 +1041,13 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1061,13 +1056,13 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1082,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1143,7 +1138,7 @@
     </row>
     <row r="7" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>57</v>
@@ -1170,7 +1165,7 @@
     </row>
     <row r="8" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
@@ -1195,23 +1190,23 @@
     </row>
     <row r="9" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>
@@ -1220,7 +1215,7 @@
     </row>
     <row r="10" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>58</v>
@@ -1247,7 +1242,7 @@
     </row>
     <row r="11" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
@@ -1272,7 +1267,7 @@
     </row>
     <row r="12" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
@@ -1297,7 +1292,7 @@
     </row>
     <row r="13" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
@@ -1322,7 +1317,7 @@
     </row>
     <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
@@ -1347,7 +1342,7 @@
     </row>
     <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
@@ -1372,7 +1367,7 @@
     </row>
     <row r="16" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>59</v>
@@ -1399,7 +1394,7 @@
     </row>
     <row r="17" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="2" t="s">
@@ -1424,7 +1419,7 @@
     </row>
     <row r="18" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
@@ -1449,7 +1444,7 @@
     </row>
     <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="2" t="s">
@@ -1474,7 +1469,7 @@
     </row>
     <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
@@ -1499,7 +1494,7 @@
     </row>
     <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
@@ -1524,25 +1519,25 @@
     </row>
     <row r="22" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>18</v>
@@ -1551,36 +1546,36 @@
     </row>
     <row r="23" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
@@ -1602,30 +1597,30 @@
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>18</v>
@@ -1634,23 +1629,23 @@
     </row>
     <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>18</v>
@@ -1659,23 +1654,23 @@
     </row>
     <row r="27" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>18</v>
